--- a/artfynd/A 39627-2023.xlsx
+++ b/artfynd/A 39627-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,6 +1266,902 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112083128</v>
+      </c>
+      <c r="B7" t="n">
+        <v>77186</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>353</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dvärgbägarlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cladonia parasitica</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Sörskog Skallberget, Vrm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>413190.1061828797</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6656475.01450387</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Hagfors</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ekshärad</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112083126</v>
+      </c>
+      <c r="B8" t="n">
+        <v>78536</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>229497</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Korallblylav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Parmeliella triptophylla</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Müll.Arg.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Sörskog Skallberget, Vrm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>413016.7201701452</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6656341.641577623</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Hagfors</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Ekshärad</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112083112</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79444</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Microcalicium ahlneri</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Sörskog Skallberget, Vrm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>412283.7604491137</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6656072.080045181</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Hagfors</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ekshärad</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112083118</v>
+      </c>
+      <c r="B10" t="n">
+        <v>94134</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>53</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Sörskog Skallberget, Vrm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>412576.6879626553</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6656303.56951345</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Hagfors</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ekshärad</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112083125</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Sörskog Skallberget, Vrm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>413015.9403039298</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6656414.640994807</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Hagfors</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Ekshärad</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112083110</v>
+      </c>
+      <c r="B12" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Sörskog Skallberget, Vrm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>412205.6393663768</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6656050.944565876</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Hagfors</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ekshärad</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112083127</v>
+      </c>
+      <c r="B13" t="n">
+        <v>77604</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6450</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Skuggblåslav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hypogymnia vittata</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Parrique</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Sörskog Skallberget, Vrm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>413051.8096683071</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6656343.312587639</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Hagfors</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ekshärad</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112083111</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Sörskog Skallberget, Vrm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>412204.6634863199</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6655988.977203708</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Hagfors</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ekshärad</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>anders tedeholm</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 39627-2023.xlsx
+++ b/artfynd/A 39627-2023.xlsx
@@ -1268,10 +1268,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112083128</v>
+        <v>112083125</v>
       </c>
       <c r="B7" t="n">
-        <v>77186</v>
+        <v>89369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,25 +1280,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413190.1061828797</v>
+        <v>413015.9403039298</v>
       </c>
       <c r="R7" t="n">
-        <v>6656475.01450387</v>
+        <v>6656414.640994807</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112083126</v>
+        <v>112083128</v>
       </c>
       <c r="B8" t="n">
-        <v>78536</v>
+        <v>77186</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,25 +1392,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229497</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413016.7201701452</v>
+        <v>413190.1061828797</v>
       </c>
       <c r="R8" t="n">
-        <v>6656341.641577623</v>
+        <v>6656475.01450387</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112083118</v>
+        <v>112083110</v>
       </c>
       <c r="B10" t="n">
-        <v>94134</v>
+        <v>78107</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,21 +1620,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>412576.6879626553</v>
+        <v>412205.6393663768</v>
       </c>
       <c r="R10" t="n">
-        <v>6656303.56951345</v>
+        <v>6656050.944565876</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112083125</v>
+        <v>112083111</v>
       </c>
       <c r="B11" t="n">
-        <v>89369</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1732,21 +1732,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>413015.9403039298</v>
+        <v>412204.6634863199</v>
       </c>
       <c r="R11" t="n">
-        <v>6656414.640994807</v>
+        <v>6655988.977203708</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112083110</v>
+        <v>112083126</v>
       </c>
       <c r="B12" t="n">
-        <v>78107</v>
+        <v>78536</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1840,25 +1840,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>229497</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>412205.6393663768</v>
+        <v>413016.7201701452</v>
       </c>
       <c r="R12" t="n">
-        <v>6656050.944565876</v>
+        <v>6656341.641577623</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112083111</v>
+        <v>112083118</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>94134</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2064,25 +2064,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>412204.6634863199</v>
+        <v>412576.6879626553</v>
       </c>
       <c r="R14" t="n">
-        <v>6655988.977203708</v>
+        <v>6656303.56951345</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 39627-2023.xlsx
+++ b/artfynd/A 39627-2023.xlsx
@@ -1268,10 +1268,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112083125</v>
+        <v>112083118</v>
       </c>
       <c r="B7" t="n">
-        <v>89369</v>
+        <v>94134</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,25 +1280,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413015.9403039298</v>
+        <v>412576.6879626553</v>
       </c>
       <c r="R7" t="n">
-        <v>6656414.640994807</v>
+        <v>6656303.56951345</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112083128</v>
+        <v>112083111</v>
       </c>
       <c r="B8" t="n">
-        <v>77186</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,25 +1392,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413190.1061828797</v>
+        <v>412204.6634863199</v>
       </c>
       <c r="R8" t="n">
-        <v>6656475.01450387</v>
+        <v>6655988.977203708</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112083112</v>
+        <v>112083125</v>
       </c>
       <c r="B9" t="n">
-        <v>79444</v>
+        <v>89369</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,25 +1504,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1049</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>412283.7604491137</v>
+        <v>413015.9403039298</v>
       </c>
       <c r="R9" t="n">
-        <v>6656072.080045181</v>
+        <v>6656414.640994807</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112083110</v>
+        <v>112083128</v>
       </c>
       <c r="B10" t="n">
-        <v>78107</v>
+        <v>77186</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1620,21 +1620,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>412205.6393663768</v>
+        <v>413190.1061828797</v>
       </c>
       <c r="R10" t="n">
-        <v>6656050.944565876</v>
+        <v>6656475.01450387</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112083111</v>
+        <v>112083126</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>78536</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1732,21 +1732,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>229497</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1756,10 +1756,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>412204.6634863199</v>
+        <v>413016.7201701452</v>
       </c>
       <c r="R11" t="n">
-        <v>6655988.977203708</v>
+        <v>6656341.641577623</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112083126</v>
+        <v>112083127</v>
       </c>
       <c r="B12" t="n">
-        <v>78536</v>
+        <v>77604</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1844,21 +1844,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>229497</v>
+        <v>6450</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>413016.7201701452</v>
+        <v>413051.8096683071</v>
       </c>
       <c r="R12" t="n">
-        <v>6656341.641577623</v>
+        <v>6656343.312587639</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,10 +1940,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112083127</v>
+        <v>112083110</v>
       </c>
       <c r="B13" t="n">
-        <v>77604</v>
+        <v>78107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1952,25 +1952,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6450</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>413051.8096683071</v>
+        <v>412205.6393663768</v>
       </c>
       <c r="R13" t="n">
-        <v>6656343.312587639</v>
+        <v>6656050.944565876</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2052,10 +2052,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112083118</v>
+        <v>112083112</v>
       </c>
       <c r="B14" t="n">
-        <v>94134</v>
+        <v>79444</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2068,21 +2068,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>1049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>412576.6879626553</v>
+        <v>412283.7604491137</v>
       </c>
       <c r="R14" t="n">
-        <v>6656303.56951345</v>
+        <v>6656072.080045181</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 39627-2023.xlsx
+++ b/artfynd/A 39627-2023.xlsx
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>412576.6879626553</v>
+        <v>412577</v>
       </c>
       <c r="R7" t="n">
-        <v>6656303.56951345</v>
+        <v>6656304</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1341,19 +1341,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1380,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112083111</v>
+        <v>112083110</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,25 +1382,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1420,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>412204.6634863199</v>
+        <v>412206</v>
       </c>
       <c r="R8" t="n">
-        <v>6655988.977203708</v>
+        <v>6656051</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1453,19 +1443,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1532,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>413015.9403039298</v>
+        <v>413016</v>
       </c>
       <c r="R9" t="n">
-        <v>6656414.640994807</v>
+        <v>6656415</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1565,19 +1545,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1604,10 +1574,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112083128</v>
+        <v>112083126</v>
       </c>
       <c r="B10" t="n">
-        <v>77186</v>
+        <v>78536</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,25 +1586,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>229497</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1644,10 +1614,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>413190.1061828797</v>
+        <v>413017</v>
       </c>
       <c r="R10" t="n">
-        <v>6656475.01450387</v>
+        <v>6656342</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1677,19 +1647,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1716,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112083126</v>
+        <v>112083127</v>
       </c>
       <c r="B11" t="n">
-        <v>78536</v>
+        <v>77604</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1732,21 +1692,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229497</v>
+        <v>6450</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1756,10 +1716,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>413016.7201701452</v>
+        <v>413052</v>
       </c>
       <c r="R11" t="n">
-        <v>6656341.641577623</v>
+        <v>6656343</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1789,19 +1749,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1828,10 +1778,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112083127</v>
+        <v>112083111</v>
       </c>
       <c r="B12" t="n">
-        <v>77604</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1844,21 +1794,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6450</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1868,10 +1818,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>413051.8096683071</v>
+        <v>412205</v>
       </c>
       <c r="R12" t="n">
-        <v>6656343.312587639</v>
+        <v>6655989</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1901,19 +1851,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1940,10 +1880,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112083110</v>
+        <v>112083112</v>
       </c>
       <c r="B13" t="n">
-        <v>78107</v>
+        <v>79444</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1956,21 +1896,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>1049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1980,10 +1920,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>412205.6393663768</v>
+        <v>412284</v>
       </c>
       <c r="R13" t="n">
-        <v>6656050.944565876</v>
+        <v>6656072</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2013,19 +1953,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2052,10 +1982,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112083112</v>
+        <v>112083128</v>
       </c>
       <c r="B14" t="n">
-        <v>79444</v>
+        <v>77186</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2068,21 +1998,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1049</v>
+        <v>353</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2092,10 +2022,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>412283.7604491137</v>
+        <v>413190</v>
       </c>
       <c r="R14" t="n">
-        <v>6656072.080045181</v>
+        <v>6656475</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2125,19 +2055,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 39627-2023.xlsx
+++ b/artfynd/A 39627-2023.xlsx
@@ -1268,10 +1268,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112083118</v>
+        <v>112083127</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>77724</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,25 +1280,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>6450</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>412577</v>
+        <v>413052</v>
       </c>
       <c r="R7" t="n">
-        <v>6656304</v>
+        <v>6656343</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112083110</v>
+        <v>112083125</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>89503</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,25 +1382,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>412206</v>
+        <v>413016</v>
       </c>
       <c r="R8" t="n">
-        <v>6656051</v>
+        <v>6656415</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112083125</v>
+        <v>112083118</v>
       </c>
       <c r="B9" t="n">
-        <v>89369</v>
+        <v>94287</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,25 +1484,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>413016</v>
+        <v>412577</v>
       </c>
       <c r="R9" t="n">
-        <v>6656415</v>
+        <v>6656304</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1574,10 +1574,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112083126</v>
+        <v>112083128</v>
       </c>
       <c r="B10" t="n">
-        <v>78536</v>
+        <v>77307</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1586,25 +1586,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>229497</v>
+        <v>353</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1614,10 +1614,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>413017</v>
+        <v>413190</v>
       </c>
       <c r="R10" t="n">
-        <v>6656342</v>
+        <v>6656475</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1676,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112083127</v>
+        <v>112083112</v>
       </c>
       <c r="B11" t="n">
-        <v>77604</v>
+        <v>79566</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1688,25 +1688,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6450</v>
+        <v>1049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1716,10 +1716,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>413052</v>
+        <v>412284</v>
       </c>
       <c r="R11" t="n">
-        <v>6656343</v>
+        <v>6656072</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112083111</v>
+        <v>112083110</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>78228</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1790,25 +1790,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>412205</v>
+        <v>412206</v>
       </c>
       <c r="R12" t="n">
-        <v>6655989</v>
+        <v>6656051</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112083112</v>
+        <v>112083126</v>
       </c>
       <c r="B13" t="n">
-        <v>79444</v>
+        <v>78657</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1892,25 +1892,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1049</v>
+        <v>229497</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>412284</v>
+        <v>413017</v>
       </c>
       <c r="R13" t="n">
-        <v>6656072</v>
+        <v>6656342</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112083128</v>
+        <v>112083111</v>
       </c>
       <c r="B14" t="n">
-        <v>77186</v>
+        <v>90800</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1994,25 +1994,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2022,10 +2022,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>413190</v>
+        <v>412205</v>
       </c>
       <c r="R14" t="n">
-        <v>6656475</v>
+        <v>6655989</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 39627-2023.xlsx
+++ b/artfynd/A 39627-2023.xlsx
@@ -1268,10 +1268,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112083127</v>
+        <v>112083111</v>
       </c>
       <c r="B7" t="n">
-        <v>77724</v>
+        <v>90814</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1284,21 +1284,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6450</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>413052</v>
+        <v>412205</v>
       </c>
       <c r="R7" t="n">
-        <v>6656343</v>
+        <v>6655989</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>112083125</v>
       </c>
       <c r="B8" t="n">
-        <v>89503</v>
+        <v>89517</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112083118</v>
+        <v>112083127</v>
       </c>
       <c r="B9" t="n">
-        <v>94287</v>
+        <v>77738</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,25 +1484,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>6450</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>412577</v>
+        <v>413052</v>
       </c>
       <c r="R9" t="n">
-        <v>6656304</v>
+        <v>6656343</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1577,7 +1577,7 @@
         <v>112083128</v>
       </c>
       <c r="B10" t="n">
-        <v>77307</v>
+        <v>77321</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1676,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112083112</v>
+        <v>112083110</v>
       </c>
       <c r="B11" t="n">
-        <v>79566</v>
+        <v>78242</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1692,21 +1692,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1049</v>
+        <v>6453</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1716,10 +1716,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>412284</v>
+        <v>412206</v>
       </c>
       <c r="R11" t="n">
-        <v>6656072</v>
+        <v>6656051</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112083110</v>
+        <v>112083112</v>
       </c>
       <c r="B12" t="n">
-        <v>78228</v>
+        <v>79580</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>1049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>412206</v>
+        <v>412284</v>
       </c>
       <c r="R12" t="n">
-        <v>6656051</v>
+        <v>6656072</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112083126</v>
+        <v>112083118</v>
       </c>
       <c r="B13" t="n">
-        <v>78657</v>
+        <v>94301</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1892,25 +1892,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>229497</v>
+        <v>53</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>413017</v>
+        <v>412577</v>
       </c>
       <c r="R13" t="n">
-        <v>6656342</v>
+        <v>6656304</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112083111</v>
+        <v>112083126</v>
       </c>
       <c r="B14" t="n">
-        <v>90800</v>
+        <v>78671</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1998,21 +1998,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>229497</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2022,10 +2022,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>412205</v>
+        <v>413017</v>
       </c>
       <c r="R14" t="n">
-        <v>6655989</v>
+        <v>6656342</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 39627-2023.xlsx
+++ b/artfynd/A 39627-2023.xlsx
@@ -1370,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112083125</v>
+        <v>112083126</v>
       </c>
       <c r="B8" t="n">
-        <v>89517</v>
+        <v>78671</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,21 +1386,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>229497</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>413016</v>
+        <v>413017</v>
       </c>
       <c r="R8" t="n">
-        <v>6656415</v>
+        <v>6656342</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112083127</v>
+        <v>112083112</v>
       </c>
       <c r="B9" t="n">
-        <v>77738</v>
+        <v>79580</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1484,25 +1484,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6450</v>
+        <v>1049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>413052</v>
+        <v>412284</v>
       </c>
       <c r="R9" t="n">
-        <v>6656343</v>
+        <v>6656072</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1676,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112083110</v>
+        <v>112083125</v>
       </c>
       <c r="B11" t="n">
-        <v>78242</v>
+        <v>89517</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1688,25 +1688,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6453</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1716,10 +1716,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>412206</v>
+        <v>413016</v>
       </c>
       <c r="R11" t="n">
-        <v>6656051</v>
+        <v>6656415</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112083112</v>
+        <v>112083118</v>
       </c>
       <c r="B12" t="n">
-        <v>79580</v>
+        <v>94301</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1794,21 +1794,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1049</v>
+        <v>53</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>412284</v>
+        <v>412577</v>
       </c>
       <c r="R12" t="n">
-        <v>6656072</v>
+        <v>6656304</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112083118</v>
+        <v>112083110</v>
       </c>
       <c r="B13" t="n">
-        <v>94301</v>
+        <v>78242</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1896,21 +1896,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>53</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>412577</v>
+        <v>412206</v>
       </c>
       <c r="R13" t="n">
-        <v>6656304</v>
+        <v>6656051</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112083126</v>
+        <v>112083127</v>
       </c>
       <c r="B14" t="n">
-        <v>78671</v>
+        <v>77738</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1998,21 +1998,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>229497</v>
+        <v>6450</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2022,10 +2022,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>413017</v>
+        <v>413052</v>
       </c>
       <c r="R14" t="n">
-        <v>6656342</v>
+        <v>6656343</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
